--- a/DataTables/Usuarios.xlsx
+++ b/DataTables/Usuarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AlborAutomation\albor\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C22F5B-8CD7-4BB6-ADFE-9464BB3DD93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C54D6F7-1D0F-4341-9960-810B69DEA2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>url</t>
   </si>
@@ -370,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,8 +406,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E637126-0C44-4610-AE33-EF12055EC33A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
